--- a/scigrow-report/test-data-output.xlsx
+++ b/scigrow-report/test-data-output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,21 +459,6 @@
           <t>Total Consumption</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1_July_2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1_August_2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_Consumption</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,28 +469,13 @@
           <t>Forest Mews Laundry</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>8,612.9 kWh</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9,182.0 kWh</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>569.1 kWh</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="C2" t="n">
         <v>8612.9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="D2" t="n">
         <v>9182</v>
       </c>
-      <c r="H2" t="n">
+      <c r="E2" t="n">
         <v>569.1</v>
       </c>
     </row>
@@ -518,28 +488,13 @@
           <t>Forest Mews 070</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10,850.3 kWh</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10,850.3 kWh</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="C3" t="n">
         <v>10850.3</v>
       </c>
-      <c r="G3" t="n">
+      <c r="D3" t="n">
         <v>10850.3</v>
       </c>
-      <c r="H3" t="n">
+      <c r="E3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -552,28 +507,13 @@
           <t>Forest Mews 082</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5,620.4 kWh</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5,942.7 kWh</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>322.3 kWh</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="C4" t="n">
         <v>5620.4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="D4" t="n">
         <v>5942.7</v>
       </c>
-      <c r="H4" t="n">
+      <c r="E4" t="n">
         <v>322.3</v>
       </c>
     </row>
@@ -586,28 +526,13 @@
           <t>Forest Mews 095</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3,463.8 kWh</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3,661.6 kWh</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>197.8 kWh</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+      <c r="C5" t="n">
         <v>3463.8</v>
       </c>
-      <c r="G5" t="n">
+      <c r="D5" t="n">
         <v>3661.6</v>
       </c>
-      <c r="H5" t="n">
+      <c r="E5" t="n">
         <v>197.8</v>
       </c>
     </row>
@@ -620,28 +545,13 @@
           <t>Forest Mews 072</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5,001.0 kWh</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5,110.8 kWh</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>109.8 kWh</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="C6" t="n">
         <v>5001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="D6" t="n">
         <v>5110.8</v>
       </c>
-      <c r="H6" t="n">
+      <c r="E6" t="n">
         <v>109.8</v>
       </c>
     </row>
@@ -654,28 +564,13 @@
           <t>Forest Mews 096</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>7,380.6 kWh</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7,571.1 kWh</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>190.6 kWh</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="C7" t="n">
         <v>7380.6</v>
       </c>
-      <c r="G7" t="n">
+      <c r="D7" t="n">
         <v>7571.1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="E7" t="n">
         <v>190.6</v>
       </c>
     </row>
@@ -688,28 +583,13 @@
           <t>Forest Mews 093</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5,653.9 kWh</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5,754.9 kWh</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>101.0 kWh</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="C8" t="n">
         <v>5653.9</v>
       </c>
-      <c r="G8" t="n">
+      <c r="D8" t="n">
         <v>5754.9</v>
       </c>
-      <c r="H8" t="n">
+      <c r="E8" t="n">
         <v>101</v>
       </c>
     </row>
@@ -725,9 +605,6 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -738,28 +615,13 @@
           <t>Forest Mews 071</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9,958.5 kWh</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10,155.6 kWh</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>197.0 kWh</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="C10" t="n">
         <v>9958.5</v>
       </c>
-      <c r="G10" t="n">
+      <c r="D10" t="n">
         <v>10155.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="E10" t="n">
         <v>197</v>
       </c>
     </row>
@@ -772,28 +634,13 @@
           <t>Forest Mews 094</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>5,804.4 kWh</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5,805.8 kWh</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.4 kWh</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="C11" t="n">
         <v>5804.4</v>
       </c>
-      <c r="G11" t="n">
+      <c r="D11" t="n">
         <v>5805.8</v>
       </c>
-      <c r="H11" t="n">
+      <c r="E11" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -806,28 +653,13 @@
           <t>Forest Mews 083</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6,642.0 kWh</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6,737.4 kWh</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.4 kWh</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+      <c r="C12" t="n">
         <v>6642</v>
       </c>
-      <c r="G12" t="n">
+      <c r="D12" t="n">
         <v>6737.4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="E12" t="n">
         <v>95.40000000000001</v>
       </c>
     </row>
@@ -840,28 +672,13 @@
           <t>Forest Mews 085</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>5,684.7 kWh</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5,684.7 kWh</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="C13" t="n">
         <v>5684.7</v>
       </c>
-      <c r="G13" t="n">
+      <c r="D13" t="n">
         <v>5684.7</v>
       </c>
-      <c r="H13" t="n">
+      <c r="E13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,28 +691,13 @@
           <t>Forest Mews 084</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8,934.7 kWh</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9,143.2 kWh</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>208.5 kWh</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="C14" t="n">
         <v>8934.700000000001</v>
       </c>
-      <c r="G14" t="n">
+      <c r="D14" t="n">
         <v>9143.200000000001</v>
       </c>
-      <c r="H14" t="n">
+      <c r="E14" t="n">
         <v>208.5</v>
       </c>
     </row>
@@ -908,28 +710,13 @@
           <t>Forest Mews 073</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>9,913.1 kWh</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>10,079.1 kWh</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>166.1 kWh</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+      <c r="C15" t="n">
         <v>9913.1</v>
       </c>
-      <c r="G15" t="n">
+      <c r="D15" t="n">
         <v>10079.1</v>
       </c>
-      <c r="H15" t="n">
+      <c r="E15" t="n">
         <v>166.1</v>
       </c>
     </row>
@@ -942,28 +729,13 @@
           <t>Forest Mews 099</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4,022.3 kWh</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4,105.7 kWh</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>83.4 kWh</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="C16" t="n">
         <v>4022.3</v>
       </c>
-      <c r="G16" t="n">
+      <c r="D16" t="n">
         <v>4105.7</v>
       </c>
-      <c r="H16" t="n">
+      <c r="E16" t="n">
         <v>83.40000000000001</v>
       </c>
     </row>
@@ -976,28 +748,13 @@
           <t>Forest Mews 074</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>7,357.7 kWh</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>7,665.1 kWh</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>307.4 kWh</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+      <c r="C17" t="n">
         <v>7357.7</v>
       </c>
-      <c r="G17" t="n">
+      <c r="D17" t="n">
         <v>7665.1</v>
       </c>
-      <c r="H17" t="n">
+      <c r="E17" t="n">
         <v>307.4</v>
       </c>
     </row>
@@ -1010,28 +767,13 @@
           <t>Forest Mews 068</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>6,353.1 kWh</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6,693.6 kWh</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>340.5 kWh</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+      <c r="C18" t="n">
         <v>6353.1</v>
       </c>
-      <c r="G18" t="n">
+      <c r="D18" t="n">
         <v>6693.6</v>
       </c>
-      <c r="H18" t="n">
+      <c r="E18" t="n">
         <v>340.5</v>
       </c>
     </row>
@@ -1044,28 +786,13 @@
           <t>Forest Mews 075</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>12,769.3 kWh</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>12,769.3 kWh</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+      <c r="C19" t="n">
         <v>12769.3</v>
       </c>
-      <c r="G19" t="n">
+      <c r="D19" t="n">
         <v>12769.3</v>
       </c>
-      <c r="H19" t="n">
+      <c r="E19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1078,28 +805,13 @@
           <t>Forest Mews 087</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>4,902.6 kWh</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4,975.3 kWh</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>72.7 kWh</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+      <c r="C20" t="n">
         <v>4902.6</v>
       </c>
-      <c r="G20" t="n">
+      <c r="D20" t="n">
         <v>4975.3</v>
       </c>
-      <c r="H20" t="n">
+      <c r="E20" t="n">
         <v>72.7</v>
       </c>
     </row>
@@ -1112,28 +824,13 @@
           <t>Forest Mews 086</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7,968.5 kWh</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>8,174.8 kWh</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>206.4 kWh</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+      <c r="C21" t="n">
         <v>7968.5</v>
       </c>
-      <c r="G21" t="n">
+      <c r="D21" t="n">
         <v>8174.8</v>
       </c>
-      <c r="H21" t="n">
+      <c r="E21" t="n">
         <v>206.4</v>
       </c>
     </row>
@@ -1146,28 +843,13 @@
           <t>Forest Mews 098</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>1,317.1 kWh</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1,345.4 kWh</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>28.4 kWh</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="C22" t="n">
         <v>1317.1</v>
       </c>
-      <c r="G22" t="n">
+      <c r="D22" t="n">
         <v>1345.4</v>
       </c>
-      <c r="H22" t="n">
+      <c r="E22" t="n">
         <v>28.4</v>
       </c>
     </row>
@@ -1180,28 +862,13 @@
           <t>Forest Mews 014</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>5,932.2 kWh</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6,218.4 kWh</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>286.2 kWh</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+      <c r="C23" t="n">
         <v>5932.2</v>
       </c>
-      <c r="G23" t="n">
+      <c r="D23" t="n">
         <v>6218.4</v>
       </c>
-      <c r="H23" t="n">
+      <c r="E23" t="n">
         <v>286.2</v>
       </c>
     </row>
@@ -1214,28 +881,13 @@
           <t>Forest Mews 025</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>5,554.6 kWh</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5,714.4 kWh</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>159.8 kWh</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+      <c r="C24" t="n">
         <v>5554.6</v>
       </c>
-      <c r="G24" t="n">
+      <c r="D24" t="n">
         <v>5714.4</v>
       </c>
-      <c r="H24" t="n">
+      <c r="E24" t="n">
         <v>159.8</v>
       </c>
     </row>
@@ -1251,9 +903,6 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1264,28 +913,13 @@
           <t>Forest Mews 013</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>6,967.9 kWh</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>7,052.6 kWh</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>84.6 kWh</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+      <c r="C26" t="n">
         <v>6967.9</v>
       </c>
-      <c r="G26" t="n">
+      <c r="D26" t="n">
         <v>7052.6</v>
       </c>
-      <c r="H26" t="n">
+      <c r="E26" t="n">
         <v>84.59999999999999</v>
       </c>
     </row>
@@ -1298,28 +932,13 @@
           <t>Forest Mews 001</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>9,827.3 kWh</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>10,215.8 kWh</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>388.5 kWh</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
+      <c r="C27" t="n">
         <v>9827.299999999999</v>
       </c>
-      <c r="G27" t="n">
+      <c r="D27" t="n">
         <v>10215.8</v>
       </c>
-      <c r="H27" t="n">
+      <c r="E27" t="n">
         <v>388.5</v>
       </c>
     </row>
@@ -1332,28 +951,13 @@
           <t>Forest Mews 023</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9,764.7 kWh</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>10,033.1 kWh</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>268.4 kWh</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+      <c r="C28" t="n">
         <v>9764.700000000001</v>
       </c>
-      <c r="G28" t="n">
+      <c r="D28" t="n">
         <v>10033.1</v>
       </c>
-      <c r="H28" t="n">
+      <c r="E28" t="n">
         <v>268.4</v>
       </c>
     </row>
@@ -1366,28 +970,13 @@
           <t>Forest Mews 024</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>4,639.9 kWh</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>4,723.5 kWh</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>83.7 kWh</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+      <c r="C29" t="n">
         <v>4639.9</v>
       </c>
-      <c r="G29" t="n">
+      <c r="D29" t="n">
         <v>4723.5</v>
       </c>
-      <c r="H29" t="n">
+      <c r="E29" t="n">
         <v>83.7</v>
       </c>
     </row>
@@ -1400,28 +989,13 @@
           <t>Forest Mews 012</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>6,673.6 kWh</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6,919.3 kWh</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>245.6 kWh</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+      <c r="C30" t="n">
         <v>6673.6</v>
       </c>
-      <c r="G30" t="n">
+      <c r="D30" t="n">
         <v>6919.3</v>
       </c>
-      <c r="H30" t="n">
+      <c r="E30" t="n">
         <v>245.6</v>
       </c>
     </row>
@@ -1434,28 +1008,13 @@
           <t>Forest Mews 003</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>6,259.4 kWh</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6,403.4 kWh</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>144.0 kWh</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+      <c r="C31" t="n">
         <v>6259.4</v>
       </c>
-      <c r="G31" t="n">
+      <c r="D31" t="n">
         <v>6403.4</v>
       </c>
-      <c r="H31" t="n">
+      <c r="E31" t="n">
         <v>144</v>
       </c>
     </row>
@@ -1468,28 +1027,13 @@
           <t>Forest Mews 048</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>6,797.2 kWh</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6,952.1 kWh</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>154.9 kWh</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+      <c r="C32" t="n">
         <v>6797.2</v>
       </c>
-      <c r="G32" t="n">
+      <c r="D32" t="n">
         <v>6952.1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="E32" t="n">
         <v>154.9</v>
       </c>
     </row>
@@ -1502,28 +1046,13 @@
           <t>Forest Mews 060</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>8,938.3 kWh</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9,266.8 kWh</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>328.5 kWh</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+      <c r="C33" t="n">
         <v>8938.299999999999</v>
       </c>
-      <c r="G33" t="n">
+      <c r="D33" t="n">
         <v>9266.799999999999</v>
       </c>
-      <c r="H33" t="n">
+      <c r="E33" t="n">
         <v>328.5</v>
       </c>
     </row>
@@ -1536,28 +1065,13 @@
           <t>Forest Mews 049</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>6,450.6 kWh</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>6,694.2 kWh</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>243.6 kWh</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+      <c r="C34" t="n">
         <v>6450.6</v>
       </c>
-      <c r="G34" t="n">
+      <c r="D34" t="n">
         <v>6694.2</v>
       </c>
-      <c r="H34" t="n">
+      <c r="E34" t="n">
         <v>243.6</v>
       </c>
     </row>
@@ -1570,28 +1084,13 @@
           <t>Forest Mews 038</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>7,808.8 kWh</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>8,016.8 kWh</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>208.0 kWh</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+      <c r="C35" t="n">
         <v>7808.8</v>
       </c>
-      <c r="G35" t="n">
+      <c r="D35" t="n">
         <v>8016.8</v>
       </c>
-      <c r="H35" t="n">
+      <c r="E35" t="n">
         <v>208</v>
       </c>
     </row>
@@ -1604,28 +1103,13 @@
           <t>Forest Mews 058</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3,613.7 kWh</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3,684.8 kWh</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>71.1 kWh</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+      <c r="C36" t="n">
         <v>3613.7</v>
       </c>
-      <c r="G36" t="n">
+      <c r="D36" t="n">
         <v>3684.8</v>
       </c>
-      <c r="H36" t="n">
+      <c r="E36" t="n">
         <v>71.09999999999999</v>
       </c>
     </row>
@@ -1638,28 +1122,13 @@
           <t>Forest Mews 050</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>4,898.6 kWh</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5,155.8 kWh</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>257.2 kWh</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+      <c r="C37" t="n">
         <v>4898.6</v>
       </c>
-      <c r="G37" t="n">
+      <c r="D37" t="n">
         <v>5155.8</v>
       </c>
-      <c r="H37" t="n">
+      <c r="E37" t="n">
         <v>257.2</v>
       </c>
     </row>
@@ -1672,28 +1141,13 @@
           <t>Forest Mews 059</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>6,105.2 kWh</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>6,290.2 kWh</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>185.0 kWh</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+      <c r="C38" t="n">
         <v>6105.2</v>
       </c>
-      <c r="G38" t="n">
+      <c r="D38" t="n">
         <v>6290.2</v>
       </c>
-      <c r="H38" t="n">
+      <c r="E38" t="n">
         <v>185</v>
       </c>
     </row>
@@ -1706,28 +1160,13 @@
           <t>Forest Mews 057</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>4,632.0 kWh</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4,745.2 kWh</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>113.2 kWh</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+      <c r="C39" t="n">
         <v>4632</v>
       </c>
-      <c r="G39" t="n">
+      <c r="D39" t="n">
         <v>4745.2</v>
       </c>
-      <c r="H39" t="n">
+      <c r="E39" t="n">
         <v>113.2</v>
       </c>
     </row>
@@ -1740,28 +1179,13 @@
           <t>Forest Mews 039</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>10,012.2 kWh</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>10,240.5 kWh</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>228.3 kWh</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
+      <c r="C40" t="n">
         <v>10012.2</v>
       </c>
-      <c r="G40" t="n">
+      <c r="D40" t="n">
         <v>10240.5</v>
       </c>
-      <c r="H40" t="n">
+      <c r="E40" t="n">
         <v>228.3</v>
       </c>
     </row>
@@ -1774,28 +1198,13 @@
           <t>Forest Mews 040</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>7,306.9 kWh</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>7,356.3 kWh</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>49.4 kWh</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+      <c r="C41" t="n">
         <v>7306.9</v>
       </c>
-      <c r="G41" t="n">
+      <c r="D41" t="n">
         <v>7356.3</v>
       </c>
-      <c r="H41" t="n">
+      <c r="E41" t="n">
         <v>49.4</v>
       </c>
     </row>
@@ -1808,28 +1217,13 @@
           <t>Forest Mews 054</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>8,962.0 kWh</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>9,321.2 kWh</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>359.2 kWh</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
+      <c r="C42" t="n">
         <v>8962</v>
       </c>
-      <c r="G42" t="n">
+      <c r="D42" t="n">
         <v>9321.200000000001</v>
       </c>
-      <c r="H42" t="n">
+      <c r="E42" t="n">
         <v>359.2</v>
       </c>
     </row>
@@ -1842,28 +1236,13 @@
           <t>Forest Mews 046</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>11,336.2 kWh</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>11,658.5 kWh</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>322.3 kWh</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
+      <c r="C43" t="n">
         <v>11336.2</v>
       </c>
-      <c r="G43" t="n">
+      <c r="D43" t="n">
         <v>11658.5</v>
       </c>
-      <c r="H43" t="n">
+      <c r="E43" t="n">
         <v>322.3</v>
       </c>
     </row>
@@ -1876,28 +1255,13 @@
           <t>Forest Mews 034</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>6,020.4 kWh</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>6,252.1 kWh</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>231.8 kWh</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+      <c r="C44" t="n">
         <v>6020.4</v>
       </c>
-      <c r="G44" t="n">
+      <c r="D44" t="n">
         <v>6252.1</v>
       </c>
-      <c r="H44" t="n">
+      <c r="E44" t="n">
         <v>231.8</v>
       </c>
     </row>
@@ -1910,28 +1274,13 @@
           <t>Forest Mews 052</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>6,612.8 kWh</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>6,784.5 kWh</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>171.7 kWh</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
+      <c r="C45" t="n">
         <v>6612.8</v>
       </c>
-      <c r="G45" t="n">
+      <c r="D45" t="n">
         <v>6784.5</v>
       </c>
-      <c r="H45" t="n">
+      <c r="E45" t="n">
         <v>171.7</v>
       </c>
     </row>
@@ -1944,28 +1293,13 @@
           <t>Forest Mews 035</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>6,060.4 kWh</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>6,241.8 kWh</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>181.4 kWh</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+      <c r="C46" t="n">
         <v>6060.4</v>
       </c>
-      <c r="G46" t="n">
+      <c r="D46" t="n">
         <v>6241.8</v>
       </c>
-      <c r="H46" t="n">
+      <c r="E46" t="n">
         <v>181.4</v>
       </c>
     </row>
@@ -1978,28 +1312,13 @@
           <t>Forest Mews 045</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>12,212.3 kWh</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>12,662.7 kWh</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>450.5 kWh</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
+      <c r="C47" t="n">
         <v>12212.3</v>
       </c>
-      <c r="G47" t="n">
+      <c r="D47" t="n">
         <v>12662.7</v>
       </c>
-      <c r="H47" t="n">
+      <c r="E47" t="n">
         <v>450.5</v>
       </c>
     </row>
@@ -2012,28 +1331,13 @@
           <t>Forest Mews 044</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>7,438.5 kWh</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>7,645.2 kWh</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>206.7 kWh</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
+      <c r="C48" t="n">
         <v>7438.5</v>
       </c>
-      <c r="G48" t="n">
+      <c r="D48" t="n">
         <v>7645.2</v>
       </c>
-      <c r="H48" t="n">
+      <c r="E48" t="n">
         <v>206.7</v>
       </c>
     </row>
@@ -2046,28 +1350,13 @@
           <t>Forest Mews 056</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>4,034.6 kWh</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4,161.1 kWh</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>126.5 kWh</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
+      <c r="C49" t="n">
         <v>4034.6</v>
       </c>
-      <c r="G49" t="n">
+      <c r="D49" t="n">
         <v>4161.1</v>
       </c>
-      <c r="H49" t="n">
+      <c r="E49" t="n">
         <v>126.5</v>
       </c>
     </row>
@@ -2080,28 +1369,13 @@
           <t>Forest Mews 036</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>7,088.1 kWh</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>7,275.1 kWh</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>187.0 kWh</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
+      <c r="C50" t="n">
         <v>7088.1</v>
       </c>
-      <c r="G50" t="n">
+      <c r="D50" t="n">
         <v>7275.1</v>
       </c>
-      <c r="H50" t="n">
+      <c r="E50" t="n">
         <v>187</v>
       </c>
     </row>
@@ -2114,28 +1388,13 @@
           <t>Forest Mews 055</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>7,012.4 kWh</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>7,193.5 kWh</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>181.1 kWh</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
+      <c r="C51" t="n">
         <v>7012.4</v>
       </c>
-      <c r="G51" t="n">
+      <c r="D51" t="n">
         <v>7193.5</v>
       </c>
-      <c r="H51" t="n">
+      <c r="E51" t="n">
         <v>181.1</v>
       </c>
     </row>
@@ -2148,28 +1407,13 @@
           <t>Forest Mews 005</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>5,323.8 kWh</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>5,437.4 kWh</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>113.6 kWh</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
+      <c r="C52" t="n">
         <v>5323.8</v>
       </c>
-      <c r="G52" t="n">
+      <c r="D52" t="n">
         <v>5437.4</v>
       </c>
-      <c r="H52" t="n">
+      <c r="E52" t="n">
         <v>113.6</v>
       </c>
     </row>
@@ -2182,28 +1426,13 @@
           <t>Forest Mews 016</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>7,504.2 kWh</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>7,779.6 kWh</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>275.4 kWh</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
+      <c r="C53" t="n">
         <v>7504.2</v>
       </c>
-      <c r="G53" t="n">
+      <c r="D53" t="n">
         <v>7779.6</v>
       </c>
-      <c r="H53" t="n">
+      <c r="E53" t="n">
         <v>275.4</v>
       </c>
     </row>
@@ -2216,28 +1445,13 @@
           <t>Forest Mews 026</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>5,194.6 kWh</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>5,286.2 kWh</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>91.6 kWh</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
+      <c r="C54" t="n">
         <v>5194.6</v>
       </c>
-      <c r="G54" t="n">
+      <c r="D54" t="n">
         <v>5286.2</v>
       </c>
-      <c r="H54" t="n">
+      <c r="E54" t="n">
         <v>91.59999999999999</v>
       </c>
     </row>
@@ -2250,28 +1464,13 @@
           <t>Forest Mews 027</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>4,126.3 kWh</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>4,127.2 kWh</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0.9 kWh</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
+      <c r="C55" t="n">
         <v>4126.3</v>
       </c>
-      <c r="G55" t="n">
+      <c r="D55" t="n">
         <v>4127.2</v>
       </c>
-      <c r="H55" t="n">
+      <c r="E55" t="n">
         <v>0.9</v>
       </c>
     </row>
@@ -2284,28 +1483,13 @@
           <t>Forest Mews 069</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>8,257.4 kWh</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>8,637.2 kWh</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>379.9 kWh</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
+      <c r="C56" t="n">
         <v>8257.4</v>
       </c>
-      <c r="G56" t="n">
+      <c r="D56" t="n">
         <v>8637.200000000001</v>
       </c>
-      <c r="H56" t="n">
+      <c r="E56" t="n">
         <v>379.9</v>
       </c>
     </row>
@@ -2318,28 +1502,13 @@
           <t>Forest Mews 015</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>8,517.2 kWh</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>8,855.3 kWh</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>338.1 kWh</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
+      <c r="C57" t="n">
         <v>8517.200000000001</v>
       </c>
-      <c r="G57" t="n">
+      <c r="D57" t="n">
         <v>8855.299999999999</v>
       </c>
-      <c r="H57" t="n">
+      <c r="E57" t="n">
         <v>338.1</v>
       </c>
     </row>
@@ -2352,28 +1521,13 @@
           <t>Forest Mews 080</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>7,622.0 kWh</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>7,773.2 kWh</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>151.2 kWh</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
+      <c r="C58" t="n">
         <v>7622</v>
       </c>
-      <c r="G58" t="n">
+      <c r="D58" t="n">
         <v>7773.2</v>
       </c>
-      <c r="H58" t="n">
+      <c r="E58" t="n">
         <v>151.2</v>
       </c>
     </row>
@@ -2386,28 +1540,13 @@
           <t>Forest Mews 006</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>9,830.8 kWh</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>9,830.8 kWh</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.1 kWh</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
+      <c r="C59" t="n">
         <v>9830.799999999999</v>
       </c>
-      <c r="G59" t="n">
+      <c r="D59" t="n">
         <v>9830.799999999999</v>
       </c>
-      <c r="H59" t="n">
+      <c r="E59" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2420,28 +1559,13 @@
           <t>Forest Mews 081</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>14,709.8 kWh</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>14,991.0 kWh</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>281.2 kWh</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
+      <c r="C60" t="n">
         <v>14709.8</v>
       </c>
-      <c r="G60" t="n">
+      <c r="D60" t="n">
         <v>14991</v>
       </c>
-      <c r="H60" t="n">
+      <c r="E60" t="n">
         <v>281.2</v>
       </c>
     </row>
@@ -2454,28 +1578,13 @@
           <t>Forest Mews 004</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>5,154.4 kWh</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>5,289.5 kWh</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>135.1 kWh</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
+      <c r="C61" t="n">
         <v>5154.4</v>
       </c>
-      <c r="G61" t="n">
+      <c r="D61" t="n">
         <v>5289.5</v>
       </c>
-      <c r="H61" t="n">
+      <c r="E61" t="n">
         <v>135.1</v>
       </c>
     </row>
@@ -2488,28 +1597,13 @@
           <t>Forest Mews 078</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>5,302.1 kWh</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>5,303.8 kWh</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1.7 kWh</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
+      <c r="C62" t="n">
         <v>5302.1</v>
       </c>
-      <c r="G62" t="n">
+      <c r="D62" t="n">
         <v>5303.8</v>
       </c>
-      <c r="H62" t="n">
+      <c r="E62" t="n">
         <v>1.7</v>
       </c>
     </row>
@@ -2525,9 +1619,6 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2538,28 +1629,13 @@
           <t>Forest Mews 088</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>7,202.8 kWh</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>7,652.6 kWh</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>449.8 kWh</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
+      <c r="C64" t="n">
         <v>7202.8</v>
       </c>
-      <c r="G64" t="n">
+      <c r="D64" t="n">
         <v>7652.6</v>
       </c>
-      <c r="H64" t="n">
+      <c r="E64" t="n">
         <v>449.8</v>
       </c>
     </row>
@@ -2572,28 +1648,13 @@
           <t>Forest Mews 076</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>9,403.3 kWh</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>9,750.1 kWh</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>346.8 kWh</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
+      <c r="C65" t="n">
         <v>9403.299999999999</v>
       </c>
-      <c r="G65" t="n">
+      <c r="D65" t="n">
         <v>9750.1</v>
       </c>
-      <c r="H65" t="n">
+      <c r="E65" t="n">
         <v>346.8</v>
       </c>
     </row>
@@ -2606,28 +1667,13 @@
           <t>Forest Mews 065</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>20,433.1 kWh</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>20,940.4 kWh</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>507.3 kWh</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
+      <c r="C66" t="n">
         <v>20433.1</v>
       </c>
-      <c r="G66" t="n">
+      <c r="D66" t="n">
         <v>20940.4</v>
       </c>
-      <c r="H66" t="n">
+      <c r="E66" t="n">
         <v>507.3</v>
       </c>
     </row>
@@ -2643,9 +1689,6 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2656,28 +1699,13 @@
           <t>Forest Mews 091</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>3,033.3 kWh</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>3,334.0 kWh</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>300.7 kWh</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
+      <c r="C68" t="n">
         <v>3033.3</v>
       </c>
-      <c r="G68" t="n">
+      <c r="D68" t="n">
         <v>3334</v>
       </c>
-      <c r="H68" t="n">
+      <c r="E68" t="n">
         <v>300.7</v>
       </c>
     </row>
@@ -2690,28 +1718,13 @@
           <t>Forest Mews 077</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2,333.9 kWh</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2,467.2 kWh</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>133.3 kWh</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
+      <c r="C69" t="n">
         <v>2333.9</v>
       </c>
-      <c r="G69" t="n">
+      <c r="D69" t="n">
         <v>2467.2</v>
       </c>
-      <c r="H69" t="n">
+      <c r="E69" t="n">
         <v>133.3</v>
       </c>
     </row>
@@ -2724,28 +1737,13 @@
           <t>Forest Mews 064</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>8,949.9 kWh</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>9,112.4 kWh</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>162.5 kWh</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
+      <c r="C70" t="n">
         <v>8949.9</v>
       </c>
-      <c r="G70" t="n">
+      <c r="D70" t="n">
         <v>9112.4</v>
       </c>
-      <c r="H70" t="n">
+      <c r="E70" t="n">
         <v>162.5</v>
       </c>
     </row>
@@ -2758,28 +1756,13 @@
           <t>Forest Mews 089</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>6,764.2 kWh</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>6,877.7 kWh</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>113.6 kWh</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
+      <c r="C71" t="n">
         <v>6764.2</v>
       </c>
-      <c r="G71" t="n">
+      <c r="D71" t="n">
         <v>6877.7</v>
       </c>
-      <c r="H71" t="n">
+      <c r="E71" t="n">
         <v>113.6</v>
       </c>
     </row>
@@ -2792,28 +1775,13 @@
           <t>Forest Mews 009</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>11,802.1 kWh</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>12,478.8 kWh</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>676.8 kWh</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
+      <c r="C72" t="n">
         <v>11802.1</v>
       </c>
-      <c r="G72" t="n">
+      <c r="D72" t="n">
         <v>12478.8</v>
       </c>
-      <c r="H72" t="n">
+      <c r="E72" t="n">
         <v>676.8</v>
       </c>
     </row>
@@ -2826,28 +1794,13 @@
           <t>Forest Mews 010</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>7,903.6 kWh</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>8,072.5 kWh</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>168.9 kWh</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
+      <c r="C73" t="n">
         <v>7903.6</v>
       </c>
-      <c r="G73" t="n">
+      <c r="D73" t="n">
         <v>8072.5</v>
       </c>
-      <c r="H73" t="n">
+      <c r="E73" t="n">
         <v>168.9</v>
       </c>
     </row>
@@ -2860,28 +1813,13 @@
           <t>Forest Mews 021</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>9,937.3 kWh</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>10,118.6 kWh</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>181.3 kWh</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
+      <c r="C74" t="n">
         <v>9937.299999999999</v>
       </c>
-      <c r="G74" t="n">
+      <c r="D74" t="n">
         <v>10118.6</v>
       </c>
-      <c r="H74" t="n">
+      <c r="E74" t="n">
         <v>181.3</v>
       </c>
     </row>
@@ -2894,28 +1832,13 @@
           <t>Forest Mews 031</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>12,189.4 kWh</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>12,502.2 kWh</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>312.8 kWh</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
+      <c r="C75" t="n">
         <v>12189.4</v>
       </c>
-      <c r="G75" t="n">
+      <c r="D75" t="n">
         <v>12502.2</v>
       </c>
-      <c r="H75" t="n">
+      <c r="E75" t="n">
         <v>312.8</v>
       </c>
     </row>
@@ -2928,28 +1851,13 @@
           <t>Forest Mews 033</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>5,333.2 kWh</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>5,497.9 kWh</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>164.8 kWh</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
+      <c r="C76" t="n">
         <v>5333.2</v>
       </c>
-      <c r="G76" t="n">
+      <c r="D76" t="n">
         <v>5497.9</v>
       </c>
-      <c r="H76" t="n">
+      <c r="E76" t="n">
         <v>164.8</v>
       </c>
     </row>
@@ -2962,28 +1870,13 @@
           <t>Forest Mews 011</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>8,142.4 kWh</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>8,193.5 kWh</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>51.1 kWh</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
+      <c r="C77" t="n">
         <v>8142.4</v>
       </c>
-      <c r="G77" t="n">
+      <c r="D77" t="n">
         <v>8193.5</v>
       </c>
-      <c r="H77" t="n">
+      <c r="E77" t="n">
         <v>51.1</v>
       </c>
     </row>
@@ -2996,28 +1889,13 @@
           <t>Forest Mews 032</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>7,355.6 kWh</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>7,532.6 kWh</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>176.9 kWh</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
+      <c r="C78" t="n">
         <v>7355.6</v>
       </c>
-      <c r="G78" t="n">
+      <c r="D78" t="n">
         <v>7532.6</v>
       </c>
-      <c r="H78" t="n">
+      <c r="E78" t="n">
         <v>176.9</v>
       </c>
     </row>
@@ -3030,28 +1908,13 @@
           <t>Forest Mews 020</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>8,020.0 kWh</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>8,251.2 kWh</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>231.2 kWh</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
+      <c r="C79" t="n">
         <v>8020</v>
       </c>
-      <c r="G79" t="n">
+      <c r="D79" t="n">
         <v>8251.200000000001</v>
       </c>
-      <c r="H79" t="n">
+      <c r="E79" t="n">
         <v>231.2</v>
       </c>
     </row>
@@ -3064,28 +1927,13 @@
           <t>Forest Mews 090</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>3,724.6 kWh</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>3,824.4 kWh</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>99.8 kWh</t>
-        </is>
-      </c>
-      <c r="F80" t="n">
+      <c r="C80" t="n">
         <v>3724.6</v>
       </c>
-      <c r="G80" t="n">
+      <c r="D80" t="n">
         <v>3824.4</v>
       </c>
-      <c r="H80" t="n">
+      <c r="E80" t="n">
         <v>99.8</v>
       </c>
     </row>
@@ -3098,28 +1946,13 @@
           <t>Forest Mews 022</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2,314.3 kWh</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2,314.4 kWh</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
+      <c r="C81" t="n">
         <v>2314.3</v>
       </c>
-      <c r="G81" t="n">
+      <c r="D81" t="n">
         <v>2314.4</v>
       </c>
-      <c r="H81" t="n">
+      <c r="E81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3132,28 +1965,13 @@
           <t>Forest Mews 067</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>4,494.9 kWh</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>4,576.7 kWh</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>81.8 kWh</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
+      <c r="C82" t="n">
         <v>4494.9</v>
       </c>
-      <c r="G82" t="n">
+      <c r="D82" t="n">
         <v>4576.7</v>
       </c>
-      <c r="H82" t="n">
+      <c r="E82" t="n">
         <v>81.8</v>
       </c>
     </row>
@@ -3166,28 +1984,13 @@
           <t>Forest Mews 007</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>7,478.4 kWh</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>7,663.5 kWh</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>185.1 kWh</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
+      <c r="C83" t="n">
         <v>7478.4</v>
       </c>
-      <c r="G83" t="n">
+      <c r="D83" t="n">
         <v>7663.5</v>
       </c>
-      <c r="H83" t="n">
+      <c r="E83" t="n">
         <v>185.1</v>
       </c>
     </row>
@@ -3200,28 +2003,13 @@
           <t>Forest Mews 008</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>13,004.4 kWh</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>13,315.7 kWh</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>311.4 kWh</t>
-        </is>
-      </c>
-      <c r="F84" t="n">
+      <c r="C84" t="n">
         <v>13004.4</v>
       </c>
-      <c r="G84" t="n">
+      <c r="D84" t="n">
         <v>13315.7</v>
       </c>
-      <c r="H84" t="n">
+      <c r="E84" t="n">
         <v>311.4</v>
       </c>
     </row>
@@ -3234,28 +2022,13 @@
           <t>Forest Mews 028</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>8,124.9 kWh</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>8,407.7 kWh</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>282.8 kWh</t>
-        </is>
-      </c>
-      <c r="F85" t="n">
+      <c r="C85" t="n">
         <v>8124.9</v>
       </c>
-      <c r="G85" t="n">
+      <c r="D85" t="n">
         <v>8407.700000000001</v>
       </c>
-      <c r="H85" t="n">
+      <c r="E85" t="n">
         <v>282.8</v>
       </c>
     </row>
@@ -3268,28 +2041,13 @@
           <t>Forest Mews 079</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>6,744.8 kWh</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>6,951.1 kWh</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>206.3 kWh</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
+      <c r="C86" t="n">
         <v>6744.8</v>
       </c>
-      <c r="G86" t="n">
+      <c r="D86" t="n">
         <v>6951.1</v>
       </c>
-      <c r="H86" t="n">
+      <c r="E86" t="n">
         <v>206.3</v>
       </c>
     </row>
@@ -3302,28 +2060,13 @@
           <t>Forest Mews 029</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>3,107.6 kWh</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>3,268.4 kWh</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>160.7 kWh</t>
-        </is>
-      </c>
-      <c r="F87" t="n">
+      <c r="C87" t="n">
         <v>3107.6</v>
       </c>
-      <c r="G87" t="n">
+      <c r="D87" t="n">
         <v>3268.4</v>
       </c>
-      <c r="H87" t="n">
+      <c r="E87" t="n">
         <v>160.7</v>
       </c>
     </row>
@@ -3336,28 +2079,13 @@
           <t>Forest Mews 019</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>7,493.2 kWh</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>7,815.0 kWh</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>321.8 kWh</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
+      <c r="C88" t="n">
         <v>7493.2</v>
       </c>
-      <c r="G88" t="n">
+      <c r="D88" t="n">
         <v>7815</v>
       </c>
-      <c r="H88" t="n">
+      <c r="E88" t="n">
         <v>321.8</v>
       </c>
     </row>
@@ -3370,28 +2098,13 @@
           <t>Forest Mews 018</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>8,139.9 kWh</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>8,140.0 kWh</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
+      <c r="C89" t="n">
         <v>8139.9</v>
       </c>
-      <c r="G89" t="n">
+      <c r="D89" t="n">
         <v>8140</v>
       </c>
-      <c r="H89" t="n">
+      <c r="E89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3404,28 +2117,13 @@
           <t>Forest Mews 017</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>5,751.7 kWh</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>5,910.4 kWh</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>158.7 kWh</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
+      <c r="C90" t="n">
         <v>5751.7</v>
       </c>
-      <c r="G90" t="n">
+      <c r="D90" t="n">
         <v>5910.4</v>
       </c>
-      <c r="H90" t="n">
+      <c r="E90" t="n">
         <v>158.7</v>
       </c>
     </row>
@@ -3438,28 +2136,13 @@
           <t>Forest Mews 030</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>10,225.2 kWh</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>10,310.2 kWh</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>85.0 kWh</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
+      <c r="C91" t="n">
         <v>10225.2</v>
       </c>
-      <c r="G91" t="n">
+      <c r="D91" t="n">
         <v>10310.2</v>
       </c>
-      <c r="H91" t="n">
+      <c r="E91" t="n">
         <v>85</v>
       </c>
     </row>
@@ -3472,28 +2155,13 @@
           <t>Forest Mews 047</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>5,619.0 kWh</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>5,730.2 kWh</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>111.2 kWh</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
+      <c r="C92" t="n">
         <v>5619</v>
       </c>
-      <c r="G92" t="n">
+      <c r="D92" t="n">
         <v>5730.2</v>
       </c>
-      <c r="H92" t="n">
+      <c r="E92" t="n">
         <v>111.2</v>
       </c>
     </row>
@@ -3506,28 +2174,13 @@
           <t>Forest Mews 063</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>4,172.2 kWh</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>4,354.2 kWh</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>182.0 kWh</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
+      <c r="C93" t="n">
         <v>4172.2</v>
       </c>
-      <c r="G93" t="n">
+      <c r="D93" t="n">
         <v>4354.2</v>
       </c>
-      <c r="H93" t="n">
+      <c r="E93" t="n">
         <v>182</v>
       </c>
     </row>
@@ -3540,28 +2193,13 @@
           <t>Forest Mews 062</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>7,126.0 kWh</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>7,359.2 kWh</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>233.2 kWh</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
+      <c r="C94" t="n">
         <v>7126</v>
       </c>
-      <c r="G94" t="n">
+      <c r="D94" t="n">
         <v>7359.2</v>
       </c>
-      <c r="H94" t="n">
+      <c r="E94" t="n">
         <v>233.2</v>
       </c>
     </row>
@@ -3574,28 +2212,13 @@
           <t>Forest Mews 053</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>6,765.5 kWh</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>6,765.5 kWh</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>0.1 kWh</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
+      <c r="C95" t="n">
         <v>6765.5</v>
       </c>
-      <c r="G95" t="n">
+      <c r="D95" t="n">
         <v>6765.5</v>
       </c>
-      <c r="H95" t="n">
+      <c r="E95" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3608,28 +2231,13 @@
           <t>Forest Mews 041</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>6,033.6 kWh</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>6,411.2 kWh</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>377.7 kWh</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
+      <c r="C96" t="n">
         <v>6033.6</v>
       </c>
-      <c r="G96" t="n">
+      <c r="D96" t="n">
         <v>6411.2</v>
       </c>
-      <c r="H96" t="n">
+      <c r="E96" t="n">
         <v>377.7</v>
       </c>
     </row>
@@ -3642,28 +2250,13 @@
           <t>Forest Mews 051</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>5,999.5 kWh</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>6,185.2 kWh</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>185.7 kWh</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
+      <c r="C97" t="n">
         <v>5999.5</v>
       </c>
-      <c r="G97" t="n">
+      <c r="D97" t="n">
         <v>6185.2</v>
       </c>
-      <c r="H97" t="n">
+      <c r="E97" t="n">
         <v>185.7</v>
       </c>
     </row>
@@ -3676,28 +2269,13 @@
           <t>Forest Mews 061</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>6,700.4 kWh</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>6,845.9 kWh</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>145.5 kWh</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
+      <c r="C98" t="n">
         <v>6700.4</v>
       </c>
-      <c r="G98" t="n">
+      <c r="D98" t="n">
         <v>6845.9</v>
       </c>
-      <c r="H98" t="n">
+      <c r="E98" t="n">
         <v>145.5</v>
       </c>
     </row>
@@ -3710,28 +2288,13 @@
           <t>Forest Mews 037</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>12,473.3 kWh</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>12,473.4 kWh</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>0.1 kWh</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
+      <c r="C99" t="n">
         <v>12473.3</v>
       </c>
-      <c r="G99" t="n">
+      <c r="D99" t="n">
         <v>12473.4</v>
       </c>
-      <c r="H99" t="n">
+      <c r="E99" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3747,9 +2310,6 @@
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3760,28 +2320,13 @@
           <t>Forest Mews 043</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>5,918.7 kWh</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>6,158.5 kWh</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>239.8 kWh</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
+      <c r="C101" t="n">
         <v>5918.7</v>
       </c>
-      <c r="G101" t="n">
+      <c r="D101" t="n">
         <v>6158.5</v>
       </c>
-      <c r="H101" t="n">
+      <c r="E101" t="n">
         <v>239.8</v>
       </c>
     </row>
@@ -3797,9 +2342,6 @@
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3813,9 +2355,6 @@
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3829,9 +2368,6 @@
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3845,9 +2381,6 @@
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3861,9 +2394,6 @@
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3877,9 +2407,6 @@
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3893,9 +2420,6 @@
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3909,9 +2433,6 @@
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3925,9 +2446,6 @@
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3941,9 +2459,6 @@
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3957,9 +2472,6 @@
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3973,9 +2485,6 @@
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3989,9 +2498,6 @@
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4005,9 +2511,6 @@
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4021,9 +2524,6 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4034,28 +2534,13 @@
           <t>Forest Mews 145</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>8,255.9 kWh</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>8,698.5 kWh</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>442.7 kWh</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
+      <c r="C117" t="n">
         <v>8255.9</v>
       </c>
-      <c r="G117" t="n">
+      <c r="D117" t="n">
         <v>8698.5</v>
       </c>
-      <c r="H117" t="n">
+      <c r="E117" t="n">
         <v>442.7</v>
       </c>
     </row>
@@ -4068,28 +2553,13 @@
           <t>Forest Mews 156</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>4,169.4 kWh</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>4,330.8 kWh</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>161.5 kWh</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
+      <c r="C118" t="n">
         <v>4169.4</v>
       </c>
-      <c r="G118" t="n">
+      <c r="D118" t="n">
         <v>4330.8</v>
       </c>
-      <c r="H118" t="n">
+      <c r="E118" t="n">
         <v>161.5</v>
       </c>
     </row>
@@ -4102,28 +2572,13 @@
           <t>Forest Mews 154</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2,903.5 kWh</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2,903.5 kWh</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
+      <c r="C119" t="n">
         <v>2903.5</v>
       </c>
-      <c r="G119" t="n">
+      <c r="D119" t="n">
         <v>2903.5</v>
       </c>
-      <c r="H119" t="n">
+      <c r="E119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4136,28 +2591,13 @@
           <t>Forest Mews 155</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>3,962.9 kWh</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>3,962.9 kWh</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
+      <c r="C120" t="n">
         <v>3962.9</v>
       </c>
-      <c r="G120" t="n">
+      <c r="D120" t="n">
         <v>3962.9</v>
       </c>
-      <c r="H120" t="n">
+      <c r="E120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4170,28 +2610,13 @@
           <t>Forest Mews 121</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>4,294.3 kWh</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>4,454.8 kWh</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>160.5 kWh</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
+      <c r="C121" t="n">
         <v>4294.3</v>
       </c>
-      <c r="G121" t="n">
+      <c r="D121" t="n">
         <v>4454.8</v>
       </c>
-      <c r="H121" t="n">
+      <c r="E121" t="n">
         <v>160.5</v>
       </c>
     </row>
@@ -4204,28 +2629,13 @@
           <t>Forest Mews 111</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>3,448.8 kWh</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>3,507.9 kWh</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>59.1 kWh</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
+      <c r="C122" t="n">
         <v>3448.8</v>
       </c>
-      <c r="G122" t="n">
+      <c r="D122" t="n">
         <v>3507.9</v>
       </c>
-      <c r="H122" t="n">
+      <c r="E122" t="n">
         <v>59.1</v>
       </c>
     </row>
@@ -4238,28 +2648,13 @@
           <t>Forest Mews 112</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>8,281.2 kWh</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>8,459.6 kWh</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>178.4 kWh</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
+      <c r="C123" t="n">
         <v>8281.200000000001</v>
       </c>
-      <c r="G123" t="n">
+      <c r="D123" t="n">
         <v>8459.6</v>
       </c>
-      <c r="H123" t="n">
+      <c r="E123" t="n">
         <v>178.4</v>
       </c>
     </row>
@@ -4272,28 +2667,13 @@
           <t>Forest Mews 159</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>4,097.3 kWh</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>4,239.2 kWh</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>141.9 kWh</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
+      <c r="C124" t="n">
         <v>4097.3</v>
       </c>
-      <c r="G124" t="n">
+      <c r="D124" t="n">
         <v>4239.2</v>
       </c>
-      <c r="H124" t="n">
+      <c r="E124" t="n">
         <v>141.9</v>
       </c>
     </row>
@@ -4306,28 +2686,13 @@
           <t>Forest Mews 147</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>5,890.4 kWh</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>6,278.3 kWh</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>387.9 kWh</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
+      <c r="C125" t="n">
         <v>5890.4</v>
       </c>
-      <c r="G125" t="n">
+      <c r="D125" t="n">
         <v>6278.3</v>
       </c>
-      <c r="H125" t="n">
+      <c r="E125" t="n">
         <v>387.9</v>
       </c>
     </row>
@@ -4340,28 +2705,13 @@
           <t>Forest Mews 136</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>7,653.1 kWh</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>7,653.1 kWh</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
+      <c r="C126" t="n">
         <v>7653.1</v>
       </c>
-      <c r="G126" t="n">
+      <c r="D126" t="n">
         <v>7653.1</v>
       </c>
-      <c r="H126" t="n">
+      <c r="E126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4374,28 +2724,13 @@
           <t>Forest Mews 158</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>3,706.1 kWh</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>3,939.0 kWh</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>232.9 kWh</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
+      <c r="C127" t="n">
         <v>3706.1</v>
       </c>
-      <c r="G127" t="n">
+      <c r="D127" t="n">
         <v>3939</v>
       </c>
-      <c r="H127" t="n">
+      <c r="E127" t="n">
         <v>232.9</v>
       </c>
     </row>
@@ -4408,28 +2743,13 @@
           <t>Forest Mews 137</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>8,018.5 kWh</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>8,315.2 kWh</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>296.7 kWh</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
+      <c r="C128" t="n">
         <v>8018.5</v>
       </c>
-      <c r="G128" t="n">
+      <c r="D128" t="n">
         <v>8315.200000000001</v>
       </c>
-      <c r="H128" t="n">
+      <c r="E128" t="n">
         <v>296.7</v>
       </c>
     </row>
@@ -4442,28 +2762,13 @@
           <t>Forest Mews 146</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>5,678.4 kWh</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>5,863.6 kWh</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>185.1 kWh</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
+      <c r="C129" t="n">
         <v>5678.4</v>
       </c>
-      <c r="G129" t="n">
+      <c r="D129" t="n">
         <v>5863.6</v>
       </c>
-      <c r="H129" t="n">
+      <c r="E129" t="n">
         <v>185.1</v>
       </c>
     </row>
@@ -4476,28 +2781,13 @@
           <t>Forest Mews 122</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>4,414.9 kWh</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>4,556.6 kWh</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>141.7 kWh</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
+      <c r="C130" t="n">
         <v>4414.9</v>
       </c>
-      <c r="G130" t="n">
+      <c r="D130" t="n">
         <v>4556.6</v>
       </c>
-      <c r="H130" t="n">
+      <c r="E130" t="n">
         <v>141.7</v>
       </c>
     </row>
@@ -4510,28 +2800,13 @@
           <t>Forest Mews 101</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>8,012.0 kWh</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>8,343.2 kWh</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>331.3 kWh</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
+      <c r="C131" t="n">
         <v>8012</v>
       </c>
-      <c r="G131" t="n">
+      <c r="D131" t="n">
         <v>8343.200000000001</v>
       </c>
-      <c r="H131" t="n">
+      <c r="E131" t="n">
         <v>331.3</v>
       </c>
     </row>
@@ -4544,28 +2819,13 @@
           <t>Forest Mews 120</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>6,027.7 kWh</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>6,243.5 kWh</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>215.8 kWh</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
+      <c r="C132" t="n">
         <v>6027.7</v>
       </c>
-      <c r="G132" t="n">
+      <c r="D132" t="n">
         <v>6243.5</v>
       </c>
-      <c r="H132" t="n">
+      <c r="E132" t="n">
         <v>215.8</v>
       </c>
     </row>
@@ -4578,28 +2838,13 @@
           <t>Forest Mews 110</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>5,298.5 kWh</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>5,437.7 kWh</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>139.2 kWh</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
+      <c r="C133" t="n">
         <v>5298.5</v>
       </c>
-      <c r="G133" t="n">
+      <c r="D133" t="n">
         <v>5437.7</v>
       </c>
-      <c r="H133" t="n">
+      <c r="E133" t="n">
         <v>139.2</v>
       </c>
     </row>
@@ -4612,28 +2857,13 @@
           <t>Forest Mews 157</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>6,358.2 kWh</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>6,569.3 kWh</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>211.2 kWh</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
+      <c r="C134" t="n">
         <v>6358.2</v>
       </c>
-      <c r="G134" t="n">
+      <c r="D134" t="n">
         <v>6569.3</v>
       </c>
-      <c r="H134" t="n">
+      <c r="E134" t="n">
         <v>211.2</v>
       </c>
     </row>
@@ -4646,28 +2876,13 @@
           <t>Forest Mews 135</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>7,731.9 kWh</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>7,904.8 kWh</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>172.9 kWh</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
+      <c r="C135" t="n">
         <v>7731.9</v>
       </c>
-      <c r="G135" t="n">
+      <c r="D135" t="n">
         <v>7904.8</v>
       </c>
-      <c r="H135" t="n">
+      <c r="E135" t="n">
         <v>172.9</v>
       </c>
     </row>
@@ -4680,28 +2895,13 @@
           <t>Forest Mews 100</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>6,092.4 kWh</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>6,206.4 kWh</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>114.0 kWh</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
+      <c r="C136" t="n">
         <v>6092.4</v>
       </c>
-      <c r="G136" t="n">
+      <c r="D136" t="n">
         <v>6206.4</v>
       </c>
-      <c r="H136" t="n">
+      <c r="E136" t="n">
         <v>114</v>
       </c>
     </row>
@@ -4714,28 +2914,13 @@
           <t>Forest Mews 151</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>6,087.2 kWh</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>6,313.2 kWh</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>226.0 kWh</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
+      <c r="C137" t="n">
         <v>6087.2</v>
       </c>
-      <c r="G137" t="n">
+      <c r="D137" t="n">
         <v>6313.2</v>
       </c>
-      <c r="H137" t="n">
+      <c r="E137" t="n">
         <v>226</v>
       </c>
     </row>
@@ -4751,9 +2936,6 @@
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4764,28 +2946,13 @@
           <t>Forest Mews 150</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>6,262.7 kWh</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>6,667.4 kWh</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>404.7 kWh</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
+      <c r="C139" t="n">
         <v>6262.7</v>
       </c>
-      <c r="G139" t="n">
+      <c r="D139" t="n">
         <v>6667.4</v>
       </c>
-      <c r="H139" t="n">
+      <c r="E139" t="n">
         <v>404.7</v>
       </c>
     </row>
@@ -4798,28 +2965,13 @@
           <t>Forest Mews 149</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>5,806.3 kWh</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>6,264.4 kWh</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>458.1 kWh</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
+      <c r="C140" t="n">
         <v>5806.3</v>
       </c>
-      <c r="G140" t="n">
+      <c r="D140" t="n">
         <v>6264.4</v>
       </c>
-      <c r="H140" t="n">
+      <c r="E140" t="n">
         <v>458.1</v>
       </c>
     </row>
@@ -4832,28 +2984,13 @@
           <t>Forest Mews 160</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>4,164.0 kWh</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>4,420.0 kWh</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>255.9 kWh</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
+      <c r="C141" t="n">
         <v>4164</v>
       </c>
-      <c r="G141" t="n">
+      <c r="D141" t="n">
         <v>4420</v>
       </c>
-      <c r="H141" t="n">
+      <c r="E141" t="n">
         <v>255.9</v>
       </c>
     </row>
@@ -4866,28 +3003,13 @@
           <t>Forest Mews 148</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>6,161.8 kWh</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>6,357.6 kWh</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>195.8 kWh</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
+      <c r="C142" t="n">
         <v>6161.8</v>
       </c>
-      <c r="G142" t="n">
+      <c r="D142" t="n">
         <v>6357.6</v>
       </c>
-      <c r="H142" t="n">
+      <c r="E142" t="n">
         <v>195.8</v>
       </c>
     </row>
@@ -4900,28 +3022,13 @@
           <t>Forest Mews 138</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>7,121.6 kWh</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>7,267.6 kWh</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>145.9 kWh</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
+      <c r="C143" t="n">
         <v>7121.6</v>
       </c>
-      <c r="G143" t="n">
+      <c r="D143" t="n">
         <v>7267.6</v>
       </c>
-      <c r="H143" t="n">
+      <c r="E143" t="n">
         <v>145.9</v>
       </c>
     </row>
@@ -4934,28 +3041,13 @@
           <t>Forest Mews 140</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>5,042.8 kWh</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>5,047.2 kWh</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>4.5 kWh</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
+      <c r="C144" t="n">
         <v>5042.8</v>
       </c>
-      <c r="G144" t="n">
+      <c r="D144" t="n">
         <v>5047.2</v>
       </c>
-      <c r="H144" t="n">
+      <c r="E144" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -4968,28 +3060,13 @@
           <t>Forest Mews 161</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2,713.8 kWh</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2,832.5 kWh</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>118.8 kWh</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
+      <c r="C145" t="n">
         <v>2713.8</v>
       </c>
-      <c r="G145" t="n">
+      <c r="D145" t="n">
         <v>2832.5</v>
       </c>
-      <c r="H145" t="n">
+      <c r="E145" t="n">
         <v>118.8</v>
       </c>
     </row>
@@ -5002,28 +3079,13 @@
           <t>Forest Mews 162</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>3,886.1 kWh</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>4,006.5 kWh</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>120.4 kWh</t>
-        </is>
-      </c>
-      <c r="F146" t="n">
+      <c r="C146" t="n">
         <v>3886.1</v>
       </c>
-      <c r="G146" t="n">
+      <c r="D146" t="n">
         <v>4006.5</v>
       </c>
-      <c r="H146" t="n">
+      <c r="E146" t="n">
         <v>120.4</v>
       </c>
     </row>
@@ -5039,9 +3101,6 @@
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -5055,9 +3114,6 @@
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -5068,28 +3124,13 @@
           <t>Forest Mews 103</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>6,457.4 kWh</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>6,457.4 kWh</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F149" t="n">
+      <c r="C149" t="n">
         <v>6457.4</v>
       </c>
-      <c r="G149" t="n">
+      <c r="D149" t="n">
         <v>6457.4</v>
       </c>
-      <c r="H149" t="n">
+      <c r="E149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5102,28 +3143,13 @@
           <t>Forest Mews 152</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>4,615.5 kWh</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>4,667.5 kWh</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>52.0 kWh</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
+      <c r="C150" t="n">
         <v>4615.5</v>
       </c>
-      <c r="G150" t="n">
+      <c r="D150" t="n">
         <v>4667.5</v>
       </c>
-      <c r="H150" t="n">
+      <c r="E150" t="n">
         <v>52</v>
       </c>
     </row>
@@ -5136,28 +3162,13 @@
           <t>Forest Mews 134</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>7,767.4 kWh</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>7,978.9 kWh</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>211.5 kWh</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
+      <c r="C151" t="n">
         <v>7767.4</v>
       </c>
-      <c r="G151" t="n">
+      <c r="D151" t="n">
         <v>7978.9</v>
       </c>
-      <c r="H151" t="n">
+      <c r="E151" t="n">
         <v>211.5</v>
       </c>
     </row>
@@ -5170,28 +3181,13 @@
           <t>Forest Mews 133</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>12,668.6 kWh</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>13,060.6 kWh</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>392.0 kWh</t>
-        </is>
-      </c>
-      <c r="F152" t="n">
+      <c r="C152" t="n">
         <v>12668.6</v>
       </c>
-      <c r="G152" t="n">
+      <c r="D152" t="n">
         <v>13060.6</v>
       </c>
-      <c r="H152" t="n">
+      <c r="E152" t="n">
         <v>392</v>
       </c>
     </row>
@@ -5204,28 +3200,13 @@
           <t>Forest Mews 114</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>4,840.5 kWh</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>4,956.8 kWh</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>116.3 kWh</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
+      <c r="C153" t="n">
         <v>4840.5</v>
       </c>
-      <c r="G153" t="n">
+      <c r="D153" t="n">
         <v>4956.8</v>
       </c>
-      <c r="H153" t="n">
+      <c r="E153" t="n">
         <v>116.3</v>
       </c>
     </row>
@@ -5238,28 +3219,13 @@
           <t>Forest Mews 102</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>6,746.5 kWh</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>6,746.5 kWh</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>0.0 kWh</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
+      <c r="C154" t="n">
         <v>6746.5</v>
       </c>
-      <c r="G154" t="n">
+      <c r="D154" t="n">
         <v>6746.5</v>
       </c>
-      <c r="H154" t="n">
+      <c r="E154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5272,28 +3238,13 @@
           <t>Forest Mews 130</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>11,042.7 kWh</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>11,675.0 kWh</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>632.3 kWh</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
+      <c r="C155" t="n">
         <v>11042.7</v>
       </c>
-      <c r="G155" t="n">
+      <c r="D155" t="n">
         <v>11675</v>
       </c>
-      <c r="H155" t="n">
+      <c r="E155" t="n">
         <v>632.3</v>
       </c>
     </row>
@@ -5306,28 +3257,13 @@
           <t>Forest Mews 144</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>7,275.4 kWh</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>7,528.3 kWh</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>252.9 kWh</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
+      <c r="C156" t="n">
         <v>7275.4</v>
       </c>
-      <c r="G156" t="n">
+      <c r="D156" t="n">
         <v>7528.3</v>
       </c>
-      <c r="H156" t="n">
+      <c r="E156" t="n">
         <v>252.9</v>
       </c>
     </row>
@@ -5340,28 +3276,13 @@
           <t>Forest Mews 143</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>8,600.0 kWh</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>8,868.6 kWh</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>268.6 kWh</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
+      <c r="C157" t="n">
         <v>8600</v>
       </c>
-      <c r="G157" t="n">
+      <c r="D157" t="n">
         <v>8868.6</v>
       </c>
-      <c r="H157" t="n">
+      <c r="E157" t="n">
         <v>268.6</v>
       </c>
     </row>
@@ -5374,28 +3295,13 @@
           <t>Forest Mews 131</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>9,344.8 kWh</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>9,497.7 kWh</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>152.9 kWh</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
+      <c r="C158" t="n">
         <v>9344.799999999999</v>
       </c>
-      <c r="G158" t="n">
+      <c r="D158" t="n">
         <v>9497.700000000001</v>
       </c>
-      <c r="H158" t="n">
+      <c r="E158" t="n">
         <v>152.9</v>
       </c>
     </row>
@@ -5408,28 +3314,13 @@
           <t>Forest Mews 132</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>5,771.7 kWh</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>5,957.4 kWh</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>185.7 kWh</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
+      <c r="C159" t="n">
         <v>5771.7</v>
       </c>
-      <c r="G159" t="n">
+      <c r="D159" t="n">
         <v>5957.4</v>
       </c>
-      <c r="H159" t="n">
+      <c r="E159" t="n">
         <v>185.7</v>
       </c>
     </row>
@@ -5442,28 +3333,13 @@
           <t>Forest Mews 153</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>7,936.5 kWh</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>8,160.3 kWh</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>223.8 kWh</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
+      <c r="C160" t="n">
         <v>7936.5</v>
       </c>
-      <c r="G160" t="n">
+      <c r="D160" t="n">
         <v>8160.3</v>
       </c>
-      <c r="H160" t="n">
+      <c r="E160" t="n">
         <v>223.8</v>
       </c>
     </row>
@@ -5476,28 +3352,13 @@
           <t>Forest Mews 113</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>3,529.8 kWh</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>3,641.1 kWh</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>111.3 kWh</t>
-        </is>
-      </c>
-      <c r="F161" t="n">
+      <c r="C161" t="n">
         <v>3529.8</v>
       </c>
-      <c r="G161" t="n">
+      <c r="D161" t="n">
         <v>3641.1</v>
       </c>
-      <c r="H161" t="n">
+      <c r="E161" t="n">
         <v>111.3</v>
       </c>
     </row>
@@ -5510,28 +3371,13 @@
           <t>Forest Mews 142</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>7,264.0 kWh</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>7,752.8 kWh</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>488.9 kWh</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
+      <c r="C162" t="n">
         <v>7264</v>
       </c>
-      <c r="G162" t="n">
+      <c r="D162" t="n">
         <v>7752.8</v>
       </c>
-      <c r="H162" t="n">
+      <c r="E162" t="n">
         <v>488.9</v>
       </c>
     </row>
@@ -5544,28 +3390,13 @@
           <t>Forest Mews 141</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>9,232.0 kWh</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>9,530.0 kWh</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>298.0 kWh</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
+      <c r="C163" t="n">
         <v>9232</v>
       </c>
-      <c r="G163" t="n">
+      <c r="D163" t="n">
         <v>9530</v>
       </c>
-      <c r="H163" t="n">
+      <c r="E163" t="n">
         <v>298</v>
       </c>
     </row>
@@ -5578,32 +3409,17 @@
           <t>Forest Mews 104</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>7,601.1 kWh</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>7,944.7 kWh</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>343.6 kWh</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
+      <c r="C164" t="n">
         <v>7601.1</v>
       </c>
-      <c r="G164" t="n">
+      <c r="D164" t="n">
         <v>7944.7</v>
       </c>
-      <c r="H164" t="n">
+      <c r="E164" t="n">
         <v>343.6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>